--- a/biology/Botanique/Trygve_Braarud/Trygve_Braarud.xlsx
+++ b/biology/Botanique/Trygve_Braarud/Trygve_Braarud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trygve Braarud, né à Verdal (Norvège) le 15 septembre 1903, est un botaniste norvégien spécialisé en biologie marine et rattaché à l'université d'Oslo durant la majorité de sa carrière. Trygve Braarud est décédé à Oslo le 9 juillet 1985.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Travaux et responsabilités professionnelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Trygve Braarud est le cofondateur de Norske havforskeres forening (Association norvégienne pour les océanographes) en 1949, dont il devient le porte-parole officiel de 1962 à 1965.
 Trygve Braarud fut également vice-président du Comité Scientifique des Recherches Océaniques (Scientific Committee on Oceanic Research - SCOR) et président de l'Association norvégienne de botanique.
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,7 +614,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son abréviation standard d'auteur dans la littérature scientifique est Braarud dans l'International Plant Names Index.
 </t>
@@ -627,7 +647,9 @@
           <t>Reconnaissance de la communauté scientifique pour ses travaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Trygve Braarud a été honoré à plusieurs reprises pour la qualité scientifique de ses travaux :
 Membre de l'Académie norvégienne des sciences et des lettres à partir de 1942,
